--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727F1D0-9F93-4216-9CA9-7CCE502C7D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095EFF6-59B3-47AE-A340-9679CEEE8E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{7BACD1B5-4E65-48D8-BDFA-C55C2A39E3FC}"/>
   </bookViews>
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FFD464-AFFA-4B58-A395-0B431C10C1E9}">
-  <dimension ref="A1:CI109"/>
+  <dimension ref="A1:CI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CE1" sqref="CE1:CI1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27008,2597 +27008,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-      <c r="X100">
-        <v>0</v>
-      </c>
-      <c r="Y100">
-        <v>0</v>
-      </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
-        <v>0</v>
-      </c>
-      <c r="AB100">
-        <v>0</v>
-      </c>
-      <c r="AC100">
-        <v>0</v>
-      </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-      <c r="AE100">
-        <v>0</v>
-      </c>
-      <c r="AF100">
-        <v>0</v>
-      </c>
-      <c r="AG100">
-        <v>0</v>
-      </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-      <c r="AI100">
-        <v>0</v>
-      </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <v>0</v>
-      </c>
-      <c r="AO100">
-        <v>0</v>
-      </c>
-      <c r="AP100">
-        <v>0</v>
-      </c>
-      <c r="AQ100">
-        <v>0</v>
-      </c>
-      <c r="AR100">
-        <v>0</v>
-      </c>
-      <c r="AS100">
-        <v>0</v>
-      </c>
-      <c r="AT100">
-        <v>0</v>
-      </c>
-      <c r="AU100">
-        <v>0</v>
-      </c>
-      <c r="AV100">
-        <v>0</v>
-      </c>
-      <c r="AW100">
-        <v>0</v>
-      </c>
-      <c r="AX100">
-        <v>0</v>
-      </c>
-      <c r="AY100">
-        <v>0</v>
-      </c>
-      <c r="AZ100">
-        <v>0</v>
-      </c>
-      <c r="BA100">
-        <v>0</v>
-      </c>
-      <c r="BB100">
-        <v>0</v>
-      </c>
-      <c r="BC100">
-        <v>0</v>
-      </c>
-      <c r="BD100">
-        <v>0</v>
-      </c>
-      <c r="BE100">
-        <v>0</v>
-      </c>
-      <c r="BF100">
-        <v>0</v>
-      </c>
-      <c r="BG100">
-        <v>0</v>
-      </c>
-      <c r="BH100">
-        <v>0</v>
-      </c>
-      <c r="BI100">
-        <v>0</v>
-      </c>
-      <c r="BJ100">
-        <v>0</v>
-      </c>
-      <c r="BK100">
-        <v>0</v>
-      </c>
-      <c r="BL100">
-        <v>0</v>
-      </c>
-      <c r="BM100">
-        <v>0</v>
-      </c>
-      <c r="BN100">
-        <v>0</v>
-      </c>
-      <c r="BO100">
-        <v>0</v>
-      </c>
-      <c r="BP100">
-        <v>0</v>
-      </c>
-      <c r="BQ100">
-        <v>0</v>
-      </c>
-      <c r="BR100">
-        <v>0</v>
-      </c>
-      <c r="BS100">
-        <v>0</v>
-      </c>
-      <c r="BT100">
-        <v>0</v>
-      </c>
-      <c r="BU100">
-        <v>0</v>
-      </c>
-      <c r="BV100">
-        <v>0</v>
-      </c>
-      <c r="BW100">
-        <v>0</v>
-      </c>
-      <c r="BX100">
-        <v>0</v>
-      </c>
-      <c r="BY100">
-        <v>0</v>
-      </c>
-      <c r="BZ100">
-        <v>0</v>
-      </c>
-      <c r="CA100">
-        <v>0</v>
-      </c>
-      <c r="CB100">
-        <v>0</v>
-      </c>
-      <c r="CC100">
-        <v>0</v>
-      </c>
-      <c r="CD100">
-        <v>0</v>
-      </c>
-      <c r="CE100">
-        <v>0</v>
-      </c>
-      <c r="CF100">
-        <v>0</v>
-      </c>
-      <c r="CG100">
-        <v>0</v>
-      </c>
-      <c r="CH100">
-        <v>0</v>
-      </c>
-      <c r="CI100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
-      <c r="T101">
-        <v>0</v>
-      </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-      <c r="X101">
-        <v>0</v>
-      </c>
-      <c r="Y101">
-        <v>0</v>
-      </c>
-      <c r="Z101">
-        <v>0</v>
-      </c>
-      <c r="AA101">
-        <v>0</v>
-      </c>
-      <c r="AB101">
-        <v>0</v>
-      </c>
-      <c r="AC101">
-        <v>0</v>
-      </c>
-      <c r="AD101">
-        <v>0</v>
-      </c>
-      <c r="AE101">
-        <v>0</v>
-      </c>
-      <c r="AF101">
-        <v>0</v>
-      </c>
-      <c r="AG101">
-        <v>0</v>
-      </c>
-      <c r="AH101">
-        <v>0</v>
-      </c>
-      <c r="AI101">
-        <v>0</v>
-      </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
-      <c r="AK101">
-        <v>0</v>
-      </c>
-      <c r="AL101">
-        <v>0</v>
-      </c>
-      <c r="AM101">
-        <v>0</v>
-      </c>
-      <c r="AN101">
-        <v>0</v>
-      </c>
-      <c r="AO101">
-        <v>0</v>
-      </c>
-      <c r="AP101">
-        <v>0</v>
-      </c>
-      <c r="AQ101">
-        <v>0</v>
-      </c>
-      <c r="AR101">
-        <v>0</v>
-      </c>
-      <c r="AS101">
-        <v>0</v>
-      </c>
-      <c r="AT101">
-        <v>0</v>
-      </c>
-      <c r="AU101">
-        <v>0</v>
-      </c>
-      <c r="AV101">
-        <v>0</v>
-      </c>
-      <c r="AW101">
-        <v>0</v>
-      </c>
-      <c r="AX101">
-        <v>0</v>
-      </c>
-      <c r="AY101">
-        <v>0</v>
-      </c>
-      <c r="AZ101">
-        <v>0</v>
-      </c>
-      <c r="BA101">
-        <v>0</v>
-      </c>
-      <c r="BB101">
-        <v>0</v>
-      </c>
-      <c r="BC101">
-        <v>0</v>
-      </c>
-      <c r="BD101">
-        <v>0</v>
-      </c>
-      <c r="BE101">
-        <v>0</v>
-      </c>
-      <c r="BF101">
-        <v>0</v>
-      </c>
-      <c r="BG101">
-        <v>0</v>
-      </c>
-      <c r="BH101">
-        <v>0</v>
-      </c>
-      <c r="BI101">
-        <v>0</v>
-      </c>
-      <c r="BJ101">
-        <v>0</v>
-      </c>
-      <c r="BK101">
-        <v>0</v>
-      </c>
-      <c r="BL101">
-        <v>0</v>
-      </c>
-      <c r="BM101">
-        <v>0</v>
-      </c>
-      <c r="BN101">
-        <v>0</v>
-      </c>
-      <c r="BO101">
-        <v>0</v>
-      </c>
-      <c r="BP101">
-        <v>0</v>
-      </c>
-      <c r="BQ101">
-        <v>0</v>
-      </c>
-      <c r="BR101">
-        <v>0</v>
-      </c>
-      <c r="BS101">
-        <v>0</v>
-      </c>
-      <c r="BT101">
-        <v>0</v>
-      </c>
-      <c r="BU101">
-        <v>0</v>
-      </c>
-      <c r="BV101">
-        <v>0</v>
-      </c>
-      <c r="BW101">
-        <v>0</v>
-      </c>
-      <c r="BX101">
-        <v>0</v>
-      </c>
-      <c r="BY101">
-        <v>0</v>
-      </c>
-      <c r="BZ101">
-        <v>0</v>
-      </c>
-      <c r="CA101">
-        <v>0</v>
-      </c>
-      <c r="CB101">
-        <v>0</v>
-      </c>
-      <c r="CC101">
-        <v>0</v>
-      </c>
-      <c r="CD101">
-        <v>0</v>
-      </c>
-      <c r="CE101">
-        <v>0</v>
-      </c>
-      <c r="CF101">
-        <v>0</v>
-      </c>
-      <c r="CG101">
-        <v>0</v>
-      </c>
-      <c r="CH101">
-        <v>0</v>
-      </c>
-      <c r="CI101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
-      <c r="T102">
-        <v>0</v>
-      </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-      <c r="X102">
-        <v>0</v>
-      </c>
-      <c r="Y102">
-        <v>0</v>
-      </c>
-      <c r="Z102">
-        <v>0</v>
-      </c>
-      <c r="AA102">
-        <v>0</v>
-      </c>
-      <c r="AB102">
-        <v>0</v>
-      </c>
-      <c r="AC102">
-        <v>0</v>
-      </c>
-      <c r="AD102">
-        <v>0</v>
-      </c>
-      <c r="AE102">
-        <v>0</v>
-      </c>
-      <c r="AF102">
-        <v>0</v>
-      </c>
-      <c r="AG102">
-        <v>0</v>
-      </c>
-      <c r="AH102">
-        <v>0</v>
-      </c>
-      <c r="AI102">
-        <v>0</v>
-      </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
-      <c r="AK102">
-        <v>0</v>
-      </c>
-      <c r="AL102">
-        <v>0</v>
-      </c>
-      <c r="AM102">
-        <v>0</v>
-      </c>
-      <c r="AN102">
-        <v>0</v>
-      </c>
-      <c r="AO102">
-        <v>0</v>
-      </c>
-      <c r="AP102">
-        <v>0</v>
-      </c>
-      <c r="AQ102">
-        <v>0</v>
-      </c>
-      <c r="AR102">
-        <v>0</v>
-      </c>
-      <c r="AS102">
-        <v>0</v>
-      </c>
-      <c r="AT102">
-        <v>0</v>
-      </c>
-      <c r="AU102">
-        <v>0</v>
-      </c>
-      <c r="AV102">
-        <v>0</v>
-      </c>
-      <c r="AW102">
-        <v>0</v>
-      </c>
-      <c r="AX102">
-        <v>0</v>
-      </c>
-      <c r="AY102">
-        <v>0</v>
-      </c>
-      <c r="AZ102">
-        <v>0</v>
-      </c>
-      <c r="BA102">
-        <v>0</v>
-      </c>
-      <c r="BB102">
-        <v>0</v>
-      </c>
-      <c r="BC102">
-        <v>0</v>
-      </c>
-      <c r="BD102">
-        <v>0</v>
-      </c>
-      <c r="BE102">
-        <v>0</v>
-      </c>
-      <c r="BF102">
-        <v>0</v>
-      </c>
-      <c r="BG102">
-        <v>0</v>
-      </c>
-      <c r="BH102">
-        <v>0</v>
-      </c>
-      <c r="BI102">
-        <v>0</v>
-      </c>
-      <c r="BJ102">
-        <v>0</v>
-      </c>
-      <c r="BK102">
-        <v>0</v>
-      </c>
-      <c r="BL102">
-        <v>0</v>
-      </c>
-      <c r="BM102">
-        <v>0</v>
-      </c>
-      <c r="BN102">
-        <v>0</v>
-      </c>
-      <c r="BO102">
-        <v>0</v>
-      </c>
-      <c r="BP102">
-        <v>0</v>
-      </c>
-      <c r="BQ102">
-        <v>0</v>
-      </c>
-      <c r="BR102">
-        <v>0</v>
-      </c>
-      <c r="BS102">
-        <v>0</v>
-      </c>
-      <c r="BT102">
-        <v>0</v>
-      </c>
-      <c r="BU102">
-        <v>0</v>
-      </c>
-      <c r="BV102">
-        <v>0</v>
-      </c>
-      <c r="BW102">
-        <v>0</v>
-      </c>
-      <c r="BX102">
-        <v>0</v>
-      </c>
-      <c r="BY102">
-        <v>0</v>
-      </c>
-      <c r="BZ102">
-        <v>0</v>
-      </c>
-      <c r="CA102">
-        <v>0</v>
-      </c>
-      <c r="CB102">
-        <v>0</v>
-      </c>
-      <c r="CC102">
-        <v>0</v>
-      </c>
-      <c r="CD102">
-        <v>0</v>
-      </c>
-      <c r="CE102">
-        <v>0</v>
-      </c>
-      <c r="CF102">
-        <v>0</v>
-      </c>
-      <c r="CG102">
-        <v>0</v>
-      </c>
-      <c r="CH102">
-        <v>0</v>
-      </c>
-      <c r="CI102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-      <c r="T103">
-        <v>0</v>
-      </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
-      <c r="X103">
-        <v>0</v>
-      </c>
-      <c r="Y103">
-        <v>0</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
-        <v>0</v>
-      </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
-      <c r="AC103">
-        <v>0</v>
-      </c>
-      <c r="AD103">
-        <v>0</v>
-      </c>
-      <c r="AE103">
-        <v>0</v>
-      </c>
-      <c r="AF103">
-        <v>0</v>
-      </c>
-      <c r="AG103">
-        <v>0</v>
-      </c>
-      <c r="AH103">
-        <v>0</v>
-      </c>
-      <c r="AI103">
-        <v>0</v>
-      </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
-      <c r="AK103">
-        <v>0</v>
-      </c>
-      <c r="AL103">
-        <v>0</v>
-      </c>
-      <c r="AM103">
-        <v>0</v>
-      </c>
-      <c r="AN103">
-        <v>0</v>
-      </c>
-      <c r="AO103">
-        <v>0</v>
-      </c>
-      <c r="AP103">
-        <v>0</v>
-      </c>
-      <c r="AQ103">
-        <v>0</v>
-      </c>
-      <c r="AR103">
-        <v>0</v>
-      </c>
-      <c r="AS103">
-        <v>0</v>
-      </c>
-      <c r="AT103">
-        <v>0</v>
-      </c>
-      <c r="AU103">
-        <v>0</v>
-      </c>
-      <c r="AV103">
-        <v>0</v>
-      </c>
-      <c r="AW103">
-        <v>0</v>
-      </c>
-      <c r="AX103">
-        <v>0</v>
-      </c>
-      <c r="AY103">
-        <v>0</v>
-      </c>
-      <c r="AZ103">
-        <v>0</v>
-      </c>
-      <c r="BA103">
-        <v>0</v>
-      </c>
-      <c r="BB103">
-        <v>0</v>
-      </c>
-      <c r="BC103">
-        <v>0</v>
-      </c>
-      <c r="BD103">
-        <v>0</v>
-      </c>
-      <c r="BE103">
-        <v>0</v>
-      </c>
-      <c r="BF103">
-        <v>0</v>
-      </c>
-      <c r="BG103">
-        <v>0</v>
-      </c>
-      <c r="BH103">
-        <v>0</v>
-      </c>
-      <c r="BI103">
-        <v>0</v>
-      </c>
-      <c r="BJ103">
-        <v>0</v>
-      </c>
-      <c r="BK103">
-        <v>0</v>
-      </c>
-      <c r="BL103">
-        <v>0</v>
-      </c>
-      <c r="BM103">
-        <v>0</v>
-      </c>
-      <c r="BN103">
-        <v>0</v>
-      </c>
-      <c r="BO103">
-        <v>0</v>
-      </c>
-      <c r="BP103">
-        <v>0</v>
-      </c>
-      <c r="BQ103">
-        <v>0</v>
-      </c>
-      <c r="BR103">
-        <v>0</v>
-      </c>
-      <c r="BS103">
-        <v>0</v>
-      </c>
-      <c r="BT103">
-        <v>0</v>
-      </c>
-      <c r="BU103">
-        <v>0</v>
-      </c>
-      <c r="BV103">
-        <v>0</v>
-      </c>
-      <c r="BW103">
-        <v>0</v>
-      </c>
-      <c r="BX103">
-        <v>0</v>
-      </c>
-      <c r="BY103">
-        <v>0</v>
-      </c>
-      <c r="BZ103">
-        <v>0</v>
-      </c>
-      <c r="CA103">
-        <v>0</v>
-      </c>
-      <c r="CB103">
-        <v>0</v>
-      </c>
-      <c r="CC103">
-        <v>0</v>
-      </c>
-      <c r="CD103">
-        <v>0</v>
-      </c>
-      <c r="CE103">
-        <v>0</v>
-      </c>
-      <c r="CF103">
-        <v>0</v>
-      </c>
-      <c r="CG103">
-        <v>0</v>
-      </c>
-      <c r="CH103">
-        <v>0</v>
-      </c>
-      <c r="CI103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
-      <c r="T104">
-        <v>0</v>
-      </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-      <c r="X104">
-        <v>0</v>
-      </c>
-      <c r="Y104">
-        <v>0</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
-        <v>0</v>
-      </c>
-      <c r="AB104">
-        <v>0</v>
-      </c>
-      <c r="AC104">
-        <v>0</v>
-      </c>
-      <c r="AD104">
-        <v>0</v>
-      </c>
-      <c r="AE104">
-        <v>0</v>
-      </c>
-      <c r="AF104">
-        <v>0</v>
-      </c>
-      <c r="AG104">
-        <v>0</v>
-      </c>
-      <c r="AH104">
-        <v>0</v>
-      </c>
-      <c r="AI104">
-        <v>0</v>
-      </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
-      <c r="AK104">
-        <v>0</v>
-      </c>
-      <c r="AL104">
-        <v>0</v>
-      </c>
-      <c r="AM104">
-        <v>0</v>
-      </c>
-      <c r="AN104">
-        <v>0</v>
-      </c>
-      <c r="AO104">
-        <v>0</v>
-      </c>
-      <c r="AP104">
-        <v>0</v>
-      </c>
-      <c r="AQ104">
-        <v>0</v>
-      </c>
-      <c r="AR104">
-        <v>0</v>
-      </c>
-      <c r="AS104">
-        <v>0</v>
-      </c>
-      <c r="AT104">
-        <v>0</v>
-      </c>
-      <c r="AU104">
-        <v>0</v>
-      </c>
-      <c r="AV104">
-        <v>0</v>
-      </c>
-      <c r="AW104">
-        <v>0</v>
-      </c>
-      <c r="AX104">
-        <v>0</v>
-      </c>
-      <c r="AY104">
-        <v>0</v>
-      </c>
-      <c r="AZ104">
-        <v>0</v>
-      </c>
-      <c r="BA104">
-        <v>0</v>
-      </c>
-      <c r="BB104">
-        <v>0</v>
-      </c>
-      <c r="BC104">
-        <v>0</v>
-      </c>
-      <c r="BD104">
-        <v>0</v>
-      </c>
-      <c r="BE104">
-        <v>0</v>
-      </c>
-      <c r="BF104">
-        <v>0</v>
-      </c>
-      <c r="BG104">
-        <v>0</v>
-      </c>
-      <c r="BH104">
-        <v>0</v>
-      </c>
-      <c r="BI104">
-        <v>0</v>
-      </c>
-      <c r="BJ104">
-        <v>0</v>
-      </c>
-      <c r="BK104">
-        <v>0</v>
-      </c>
-      <c r="BL104">
-        <v>0</v>
-      </c>
-      <c r="BM104">
-        <v>0</v>
-      </c>
-      <c r="BN104">
-        <v>0</v>
-      </c>
-      <c r="BO104">
-        <v>0</v>
-      </c>
-      <c r="BP104">
-        <v>0</v>
-      </c>
-      <c r="BQ104">
-        <v>0</v>
-      </c>
-      <c r="BR104">
-        <v>0</v>
-      </c>
-      <c r="BS104">
-        <v>0</v>
-      </c>
-      <c r="BT104">
-        <v>0</v>
-      </c>
-      <c r="BU104">
-        <v>0</v>
-      </c>
-      <c r="BV104">
-        <v>0</v>
-      </c>
-      <c r="BW104">
-        <v>0</v>
-      </c>
-      <c r="BX104">
-        <v>0</v>
-      </c>
-      <c r="BY104">
-        <v>0</v>
-      </c>
-      <c r="BZ104">
-        <v>0</v>
-      </c>
-      <c r="CA104">
-        <v>0</v>
-      </c>
-      <c r="CB104">
-        <v>0</v>
-      </c>
-      <c r="CC104">
-        <v>0</v>
-      </c>
-      <c r="CD104">
-        <v>0</v>
-      </c>
-      <c r="CE104">
-        <v>0</v>
-      </c>
-      <c r="CF104">
-        <v>0</v>
-      </c>
-      <c r="CG104">
-        <v>0</v>
-      </c>
-      <c r="CH104">
-        <v>0</v>
-      </c>
-      <c r="CI104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
-      <c r="T105">
-        <v>0</v>
-      </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-      <c r="X105">
-        <v>0</v>
-      </c>
-      <c r="Y105">
-        <v>0</v>
-      </c>
-      <c r="Z105">
-        <v>0</v>
-      </c>
-      <c r="AA105">
-        <v>0</v>
-      </c>
-      <c r="AB105">
-        <v>0</v>
-      </c>
-      <c r="AC105">
-        <v>0</v>
-      </c>
-      <c r="AD105">
-        <v>0</v>
-      </c>
-      <c r="AE105">
-        <v>0</v>
-      </c>
-      <c r="AF105">
-        <v>0</v>
-      </c>
-      <c r="AG105">
-        <v>0</v>
-      </c>
-      <c r="AH105">
-        <v>0</v>
-      </c>
-      <c r="AI105">
-        <v>0</v>
-      </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
-      <c r="AK105">
-        <v>0</v>
-      </c>
-      <c r="AL105">
-        <v>0</v>
-      </c>
-      <c r="AM105">
-        <v>0</v>
-      </c>
-      <c r="AN105">
-        <v>0</v>
-      </c>
-      <c r="AO105">
-        <v>0</v>
-      </c>
-      <c r="AP105">
-        <v>0</v>
-      </c>
-      <c r="AQ105">
-        <v>0</v>
-      </c>
-      <c r="AR105">
-        <v>0</v>
-      </c>
-      <c r="AS105">
-        <v>0</v>
-      </c>
-      <c r="AT105">
-        <v>0</v>
-      </c>
-      <c r="AU105">
-        <v>0</v>
-      </c>
-      <c r="AV105">
-        <v>0</v>
-      </c>
-      <c r="AW105">
-        <v>0</v>
-      </c>
-      <c r="AX105">
-        <v>0</v>
-      </c>
-      <c r="AY105">
-        <v>0</v>
-      </c>
-      <c r="AZ105">
-        <v>0</v>
-      </c>
-      <c r="BA105">
-        <v>0</v>
-      </c>
-      <c r="BB105">
-        <v>0</v>
-      </c>
-      <c r="BC105">
-        <v>0</v>
-      </c>
-      <c r="BD105">
-        <v>0</v>
-      </c>
-      <c r="BE105">
-        <v>0</v>
-      </c>
-      <c r="BF105">
-        <v>0</v>
-      </c>
-      <c r="BG105">
-        <v>0</v>
-      </c>
-      <c r="BH105">
-        <v>0</v>
-      </c>
-      <c r="BI105">
-        <v>0</v>
-      </c>
-      <c r="BJ105">
-        <v>0</v>
-      </c>
-      <c r="BK105">
-        <v>0</v>
-      </c>
-      <c r="BL105">
-        <v>0</v>
-      </c>
-      <c r="BM105">
-        <v>0</v>
-      </c>
-      <c r="BN105">
-        <v>0</v>
-      </c>
-      <c r="BO105">
-        <v>0</v>
-      </c>
-      <c r="BP105">
-        <v>0</v>
-      </c>
-      <c r="BQ105">
-        <v>0</v>
-      </c>
-      <c r="BR105">
-        <v>0</v>
-      </c>
-      <c r="BS105">
-        <v>0</v>
-      </c>
-      <c r="BT105">
-        <v>0</v>
-      </c>
-      <c r="BU105">
-        <v>0</v>
-      </c>
-      <c r="BV105">
-        <v>0</v>
-      </c>
-      <c r="BW105">
-        <v>0</v>
-      </c>
-      <c r="BX105">
-        <v>0</v>
-      </c>
-      <c r="BY105">
-        <v>0</v>
-      </c>
-      <c r="BZ105">
-        <v>0</v>
-      </c>
-      <c r="CA105">
-        <v>0</v>
-      </c>
-      <c r="CB105">
-        <v>0</v>
-      </c>
-      <c r="CC105">
-        <v>0</v>
-      </c>
-      <c r="CD105">
-        <v>0</v>
-      </c>
-      <c r="CE105">
-        <v>0</v>
-      </c>
-      <c r="CF105">
-        <v>0</v>
-      </c>
-      <c r="CG105">
-        <v>0</v>
-      </c>
-      <c r="CH105">
-        <v>0</v>
-      </c>
-      <c r="CI105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-      <c r="S106">
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <v>0</v>
-      </c>
-      <c r="U106">
-        <v>0</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-      <c r="X106">
-        <v>0</v>
-      </c>
-      <c r="Y106">
-        <v>0</v>
-      </c>
-      <c r="Z106">
-        <v>0</v>
-      </c>
-      <c r="AA106">
-        <v>0</v>
-      </c>
-      <c r="AB106">
-        <v>0</v>
-      </c>
-      <c r="AC106">
-        <v>0</v>
-      </c>
-      <c r="AD106">
-        <v>0</v>
-      </c>
-      <c r="AE106">
-        <v>0</v>
-      </c>
-      <c r="AF106">
-        <v>0</v>
-      </c>
-      <c r="AG106">
-        <v>0</v>
-      </c>
-      <c r="AH106">
-        <v>0</v>
-      </c>
-      <c r="AI106">
-        <v>0</v>
-      </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
-      <c r="AK106">
-        <v>0</v>
-      </c>
-      <c r="AL106">
-        <v>0</v>
-      </c>
-      <c r="AM106">
-        <v>0</v>
-      </c>
-      <c r="AN106">
-        <v>0</v>
-      </c>
-      <c r="AO106">
-        <v>0</v>
-      </c>
-      <c r="AP106">
-        <v>0</v>
-      </c>
-      <c r="AQ106">
-        <v>0</v>
-      </c>
-      <c r="AR106">
-        <v>0</v>
-      </c>
-      <c r="AS106">
-        <v>0</v>
-      </c>
-      <c r="AT106">
-        <v>0</v>
-      </c>
-      <c r="AU106">
-        <v>0</v>
-      </c>
-      <c r="AV106">
-        <v>0</v>
-      </c>
-      <c r="AW106">
-        <v>0</v>
-      </c>
-      <c r="AX106">
-        <v>0</v>
-      </c>
-      <c r="AY106">
-        <v>0</v>
-      </c>
-      <c r="AZ106">
-        <v>0</v>
-      </c>
-      <c r="BA106">
-        <v>0</v>
-      </c>
-      <c r="BB106">
-        <v>0</v>
-      </c>
-      <c r="BC106">
-        <v>0</v>
-      </c>
-      <c r="BD106">
-        <v>0</v>
-      </c>
-      <c r="BE106">
-        <v>0</v>
-      </c>
-      <c r="BF106">
-        <v>0</v>
-      </c>
-      <c r="BG106">
-        <v>0</v>
-      </c>
-      <c r="BH106">
-        <v>0</v>
-      </c>
-      <c r="BI106">
-        <v>0</v>
-      </c>
-      <c r="BJ106">
-        <v>0</v>
-      </c>
-      <c r="BK106">
-        <v>0</v>
-      </c>
-      <c r="BL106">
-        <v>0</v>
-      </c>
-      <c r="BM106">
-        <v>0</v>
-      </c>
-      <c r="BN106">
-        <v>0</v>
-      </c>
-      <c r="BO106">
-        <v>0</v>
-      </c>
-      <c r="BP106">
-        <v>0</v>
-      </c>
-      <c r="BQ106">
-        <v>0</v>
-      </c>
-      <c r="BR106">
-        <v>0</v>
-      </c>
-      <c r="BS106">
-        <v>0</v>
-      </c>
-      <c r="BT106">
-        <v>0</v>
-      </c>
-      <c r="BU106">
-        <v>0</v>
-      </c>
-      <c r="BV106">
-        <v>0</v>
-      </c>
-      <c r="BW106">
-        <v>0</v>
-      </c>
-      <c r="BX106">
-        <v>0</v>
-      </c>
-      <c r="BY106">
-        <v>0</v>
-      </c>
-      <c r="BZ106">
-        <v>0</v>
-      </c>
-      <c r="CA106">
-        <v>0</v>
-      </c>
-      <c r="CB106">
-        <v>0</v>
-      </c>
-      <c r="CC106">
-        <v>0</v>
-      </c>
-      <c r="CD106">
-        <v>0</v>
-      </c>
-      <c r="CE106">
-        <v>0</v>
-      </c>
-      <c r="CF106">
-        <v>0</v>
-      </c>
-      <c r="CG106">
-        <v>0</v>
-      </c>
-      <c r="CH106">
-        <v>0</v>
-      </c>
-      <c r="CI106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
-      <c r="S107">
-        <v>0</v>
-      </c>
-      <c r="T107">
-        <v>0</v>
-      </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-      <c r="X107">
-        <v>0</v>
-      </c>
-      <c r="Y107">
-        <v>0</v>
-      </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
-      <c r="AA107">
-        <v>0</v>
-      </c>
-      <c r="AB107">
-        <v>0</v>
-      </c>
-      <c r="AC107">
-        <v>0</v>
-      </c>
-      <c r="AD107">
-        <v>0</v>
-      </c>
-      <c r="AE107">
-        <v>0</v>
-      </c>
-      <c r="AF107">
-        <v>0</v>
-      </c>
-      <c r="AG107">
-        <v>0</v>
-      </c>
-      <c r="AH107">
-        <v>0</v>
-      </c>
-      <c r="AI107">
-        <v>0</v>
-      </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
-      <c r="AK107">
-        <v>0</v>
-      </c>
-      <c r="AL107">
-        <v>0</v>
-      </c>
-      <c r="AM107">
-        <v>0</v>
-      </c>
-      <c r="AN107">
-        <v>0</v>
-      </c>
-      <c r="AO107">
-        <v>0</v>
-      </c>
-      <c r="AP107">
-        <v>0</v>
-      </c>
-      <c r="AQ107">
-        <v>0</v>
-      </c>
-      <c r="AR107">
-        <v>0</v>
-      </c>
-      <c r="AS107">
-        <v>0</v>
-      </c>
-      <c r="AT107">
-        <v>0</v>
-      </c>
-      <c r="AU107">
-        <v>0</v>
-      </c>
-      <c r="AV107">
-        <v>0</v>
-      </c>
-      <c r="AW107">
-        <v>0</v>
-      </c>
-      <c r="AX107">
-        <v>0</v>
-      </c>
-      <c r="AY107">
-        <v>0</v>
-      </c>
-      <c r="AZ107">
-        <v>0</v>
-      </c>
-      <c r="BA107">
-        <v>0</v>
-      </c>
-      <c r="BB107">
-        <v>0</v>
-      </c>
-      <c r="BC107">
-        <v>0</v>
-      </c>
-      <c r="BD107">
-        <v>0</v>
-      </c>
-      <c r="BE107">
-        <v>0</v>
-      </c>
-      <c r="BF107">
-        <v>0</v>
-      </c>
-      <c r="BG107">
-        <v>0</v>
-      </c>
-      <c r="BH107">
-        <v>0</v>
-      </c>
-      <c r="BI107">
-        <v>0</v>
-      </c>
-      <c r="BJ107">
-        <v>0</v>
-      </c>
-      <c r="BK107">
-        <v>0</v>
-      </c>
-      <c r="BL107">
-        <v>0</v>
-      </c>
-      <c r="BM107">
-        <v>0</v>
-      </c>
-      <c r="BN107">
-        <v>0</v>
-      </c>
-      <c r="BO107">
-        <v>0</v>
-      </c>
-      <c r="BP107">
-        <v>0</v>
-      </c>
-      <c r="BQ107">
-        <v>0</v>
-      </c>
-      <c r="BR107">
-        <v>0</v>
-      </c>
-      <c r="BS107">
-        <v>0</v>
-      </c>
-      <c r="BT107">
-        <v>0</v>
-      </c>
-      <c r="BU107">
-        <v>0</v>
-      </c>
-      <c r="BV107">
-        <v>0</v>
-      </c>
-      <c r="BW107">
-        <v>0</v>
-      </c>
-      <c r="BX107">
-        <v>0</v>
-      </c>
-      <c r="BY107">
-        <v>0</v>
-      </c>
-      <c r="BZ107">
-        <v>0</v>
-      </c>
-      <c r="CA107">
-        <v>0</v>
-      </c>
-      <c r="CB107">
-        <v>0</v>
-      </c>
-      <c r="CC107">
-        <v>0</v>
-      </c>
-      <c r="CD107">
-        <v>0</v>
-      </c>
-      <c r="CE107">
-        <v>0</v>
-      </c>
-      <c r="CF107">
-        <v>0</v>
-      </c>
-      <c r="CG107">
-        <v>0</v>
-      </c>
-      <c r="CH107">
-        <v>0</v>
-      </c>
-      <c r="CI107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>0</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-      <c r="S108">
-        <v>0</v>
-      </c>
-      <c r="T108">
-        <v>0</v>
-      </c>
-      <c r="U108">
-        <v>0</v>
-      </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-      <c r="X108">
-        <v>0</v>
-      </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
-      <c r="Z108">
-        <v>0</v>
-      </c>
-      <c r="AA108">
-        <v>0</v>
-      </c>
-      <c r="AB108">
-        <v>0</v>
-      </c>
-      <c r="AC108">
-        <v>0</v>
-      </c>
-      <c r="AD108">
-        <v>0</v>
-      </c>
-      <c r="AE108">
-        <v>0</v>
-      </c>
-      <c r="AF108">
-        <v>0</v>
-      </c>
-      <c r="AG108">
-        <v>0</v>
-      </c>
-      <c r="AH108">
-        <v>0</v>
-      </c>
-      <c r="AI108">
-        <v>0</v>
-      </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
-      <c r="AK108">
-        <v>0</v>
-      </c>
-      <c r="AL108">
-        <v>0</v>
-      </c>
-      <c r="AM108">
-        <v>0</v>
-      </c>
-      <c r="AN108">
-        <v>0</v>
-      </c>
-      <c r="AO108">
-        <v>0</v>
-      </c>
-      <c r="AP108">
-        <v>0</v>
-      </c>
-      <c r="AQ108">
-        <v>0</v>
-      </c>
-      <c r="AR108">
-        <v>0</v>
-      </c>
-      <c r="AS108">
-        <v>0</v>
-      </c>
-      <c r="AT108">
-        <v>0</v>
-      </c>
-      <c r="AU108">
-        <v>0</v>
-      </c>
-      <c r="AV108">
-        <v>0</v>
-      </c>
-      <c r="AW108">
-        <v>0</v>
-      </c>
-      <c r="AX108">
-        <v>0</v>
-      </c>
-      <c r="AY108">
-        <v>0</v>
-      </c>
-      <c r="AZ108">
-        <v>0</v>
-      </c>
-      <c r="BA108">
-        <v>0</v>
-      </c>
-      <c r="BB108">
-        <v>0</v>
-      </c>
-      <c r="BC108">
-        <v>0</v>
-      </c>
-      <c r="BD108">
-        <v>0</v>
-      </c>
-      <c r="BE108">
-        <v>0</v>
-      </c>
-      <c r="BF108">
-        <v>0</v>
-      </c>
-      <c r="BG108">
-        <v>0</v>
-      </c>
-      <c r="BH108">
-        <v>0</v>
-      </c>
-      <c r="BI108">
-        <v>0</v>
-      </c>
-      <c r="BJ108">
-        <v>0</v>
-      </c>
-      <c r="BK108">
-        <v>0</v>
-      </c>
-      <c r="BL108">
-        <v>0</v>
-      </c>
-      <c r="BM108">
-        <v>0</v>
-      </c>
-      <c r="BN108">
-        <v>0</v>
-      </c>
-      <c r="BO108">
-        <v>0</v>
-      </c>
-      <c r="BP108">
-        <v>0</v>
-      </c>
-      <c r="BQ108">
-        <v>0</v>
-      </c>
-      <c r="BR108">
-        <v>0</v>
-      </c>
-      <c r="BS108">
-        <v>0</v>
-      </c>
-      <c r="BT108">
-        <v>0</v>
-      </c>
-      <c r="BU108">
-        <v>0</v>
-      </c>
-      <c r="BV108">
-        <v>0</v>
-      </c>
-      <c r="BW108">
-        <v>0</v>
-      </c>
-      <c r="BX108">
-        <v>0</v>
-      </c>
-      <c r="BY108">
-        <v>0</v>
-      </c>
-      <c r="BZ108">
-        <v>0</v>
-      </c>
-      <c r="CA108">
-        <v>0</v>
-      </c>
-      <c r="CB108">
-        <v>0</v>
-      </c>
-      <c r="CC108">
-        <v>0</v>
-      </c>
-      <c r="CD108">
-        <v>0</v>
-      </c>
-      <c r="CE108">
-        <v>0</v>
-      </c>
-      <c r="CF108">
-        <v>0</v>
-      </c>
-      <c r="CG108">
-        <v>0</v>
-      </c>
-      <c r="CH108">
-        <v>0</v>
-      </c>
-      <c r="CI108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <v>0</v>
-      </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
-      <c r="Z109">
-        <v>0</v>
-      </c>
-      <c r="AA109">
-        <v>0</v>
-      </c>
-      <c r="AB109">
-        <v>0</v>
-      </c>
-      <c r="AC109">
-        <v>0</v>
-      </c>
-      <c r="AD109">
-        <v>0</v>
-      </c>
-      <c r="AE109">
-        <v>0</v>
-      </c>
-      <c r="AF109">
-        <v>0</v>
-      </c>
-      <c r="AG109">
-        <v>0</v>
-      </c>
-      <c r="AH109">
-        <v>0</v>
-      </c>
-      <c r="AI109">
-        <v>0</v>
-      </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
-      <c r="AK109">
-        <v>0</v>
-      </c>
-      <c r="AL109">
-        <v>0</v>
-      </c>
-      <c r="AM109">
-        <v>0</v>
-      </c>
-      <c r="AN109">
-        <v>0</v>
-      </c>
-      <c r="AO109">
-        <v>0</v>
-      </c>
-      <c r="AP109">
-        <v>0</v>
-      </c>
-      <c r="AQ109">
-        <v>0</v>
-      </c>
-      <c r="AR109">
-        <v>0</v>
-      </c>
-      <c r="AS109">
-        <v>0</v>
-      </c>
-      <c r="AT109">
-        <v>0</v>
-      </c>
-      <c r="AU109">
-        <v>0</v>
-      </c>
-      <c r="AV109">
-        <v>0</v>
-      </c>
-      <c r="AW109">
-        <v>0</v>
-      </c>
-      <c r="AX109">
-        <v>0</v>
-      </c>
-      <c r="AY109">
-        <v>0</v>
-      </c>
-      <c r="AZ109">
-        <v>0</v>
-      </c>
-      <c r="BA109">
-        <v>0</v>
-      </c>
-      <c r="BB109">
-        <v>0</v>
-      </c>
-      <c r="BC109">
-        <v>0</v>
-      </c>
-      <c r="BD109">
-        <v>0</v>
-      </c>
-      <c r="BE109">
-        <v>0</v>
-      </c>
-      <c r="BF109">
-        <v>0</v>
-      </c>
-      <c r="BG109">
-        <v>0</v>
-      </c>
-      <c r="BH109">
-        <v>0</v>
-      </c>
-      <c r="BI109">
-        <v>0</v>
-      </c>
-      <c r="BJ109">
-        <v>0</v>
-      </c>
-      <c r="BK109">
-        <v>0</v>
-      </c>
-      <c r="BL109">
-        <v>0</v>
-      </c>
-      <c r="BM109">
-        <v>0</v>
-      </c>
-      <c r="BN109">
-        <v>0</v>
-      </c>
-      <c r="BO109">
-        <v>0</v>
-      </c>
-      <c r="BP109">
-        <v>0</v>
-      </c>
-      <c r="BQ109">
-        <v>0</v>
-      </c>
-      <c r="BR109">
-        <v>0</v>
-      </c>
-      <c r="BS109">
-        <v>0</v>
-      </c>
-      <c r="BT109">
-        <v>0</v>
-      </c>
-      <c r="BU109">
-        <v>0</v>
-      </c>
-      <c r="BV109">
-        <v>0</v>
-      </c>
-      <c r="BW109">
-        <v>0</v>
-      </c>
-      <c r="BX109">
-        <v>0</v>
-      </c>
-      <c r="BY109">
-        <v>0</v>
-      </c>
-      <c r="BZ109">
-        <v>0</v>
-      </c>
-      <c r="CA109">
-        <v>0</v>
-      </c>
-      <c r="CB109">
-        <v>0</v>
-      </c>
-      <c r="CC109">
-        <v>0</v>
-      </c>
-      <c r="CD109">
-        <v>0</v>
-      </c>
-      <c r="CE109">
-        <v>0</v>
-      </c>
-      <c r="CF109">
-        <v>0</v>
-      </c>
-      <c r="CG109">
-        <v>0</v>
-      </c>
-      <c r="CH109">
-        <v>0</v>
-      </c>
-      <c r="CI109">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B317DDC8-3029-49B7-B9E1-BB24F75A101C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A5A7F2-0200-408D-A3D4-FB6F4CD8F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{2132F57B-8824-4764-BC02-18EC8AEFAB7F}"/>
   </bookViews>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACA3018-E49A-49B2-AB2D-E7B776AEAC6B}">
   <dimension ref="A1:CI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,32 +1237,32 @@
     </row>
     <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
@@ -1272,302 +1272,302 @@
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -1577,155 +1577,158 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A99">
+    <sortCondition ref="A2:A99"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A5A7F2-0200-408D-A3D4-FB6F4CD8F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD506980-AAE2-4B92-8130-032A18D39E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{2132F57B-8824-4764-BC02-18EC8AEFAB7F}"/>
   </bookViews>
@@ -931,7 +931,7 @@
   <dimension ref="A1:CI99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,6 +1239,9 @@
       <c r="A2" t="s">
         <v>117</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD506980-AAE2-4B92-8130-032A18D39E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E215BCF-4093-4EC5-92AA-00F4EF1AD60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{2132F57B-8824-4764-BC02-18EC8AEFAB7F}"/>
+    <workbookView xWindow="-21210" yWindow="2760" windowWidth="18900" windowHeight="10965" xr2:uid="{2132F57B-8824-4764-BC02-18EC8AEFAB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1239,9 +1239,6 @@
       <c r="A2" t="s">
         <v>117</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E215BCF-4093-4EC5-92AA-00F4EF1AD60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C724816-1F71-48F1-B9AA-6D6CFF75F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21210" yWindow="2760" windowWidth="18900" windowHeight="10965" xr2:uid="{2132F57B-8824-4764-BC02-18EC8AEFAB7F}"/>
+    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{2132F57B-8824-4764-BC02-18EC8AEFAB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -931,7 +931,7 @@
   <dimension ref="A1:CI99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,490 +1239,784 @@
       <c r="A2" t="s">
         <v>117</v>
       </c>
+      <c r="B2">
+        <v>3000</v>
+      </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>140</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>137</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>141</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C724816-1F71-48F1-B9AA-6D6CFF75F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30D60F0-6908-482A-BB70-6189B4D213D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{2132F57B-8824-4764-BC02-18EC8AEFAB7F}"/>
   </bookViews>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACA3018-E49A-49B2-AB2D-E7B776AEAC6B}">
   <dimension ref="A1:CI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,784 +1239,490 @@
       <c r="A2" t="s">
         <v>117</v>
       </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>140</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>137</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>98</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>173</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
-      <c r="B18">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>154</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>158</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>180</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>127</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>163</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>165</v>
       </c>
-      <c r="B28">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>151</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>112</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>174</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>130</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>166</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>128</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>175</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>142</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>155</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>121</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>179</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>169</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>146</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>135</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>181</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>129</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>87</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>144</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>96</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>138</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>156</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>183</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>136</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>131</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>153</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>132</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>111</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>108</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>116</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>113</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>126</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>120</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>119</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>178</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>147</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>177</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>103</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>143</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>99</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>150</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>133</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>159</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>160</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>167</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>88</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>125</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>107</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>141</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66DFF39-5247-4155-A26C-9F7FC12CA2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA4046E-5985-4002-9369-A645ADB4BA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
+    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -937,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDB95A4-EF6D-4065-93BE-B1482570B508}">
   <dimension ref="A1:BW101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1:AB1048576"/>
     </sheetView>
   </sheetViews>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F969897-8679-486F-8B62-632E6B57E1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80984B55-B313-465B-9DBB-F21E3BA28EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -432,9 +432,6 @@
     <t>ROGER FEDERER</t>
   </si>
   <si>
-    <t>rookie</t>
-  </si>
-  <si>
     <t>RudeJustTheTip</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>Scorpio</t>
+  </si>
+  <si>
+    <t>mazerunner</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
   <dimension ref="A1:BW101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>28</v>
@@ -1084,7 +1084,7 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>36</v>
@@ -1195,12 +1195,12 @@
         <v>70</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1">
         <v>9847</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1">
         <v>9015</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1">
         <v>7111</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1">
         <v>6670</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="1">
         <v>5745</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="1">
         <v>5377</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="1">
         <v>4550</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="1">
         <v>4547</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="1">
         <v>4507</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="1">
         <v>4505</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1">
         <v>4210</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1">
         <v>4200</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="1">
         <v>4045</v>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="1">
         <v>3827</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="33" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="1">
         <v>3770</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="39" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="1">
         <v>3515</v>
@@ -10507,7 +10507,7 @@
     </row>
     <row r="43" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B43" s="1">
         <v>3322</v>
@@ -10734,7 +10734,7 @@
     </row>
     <row r="44" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" s="1">
         <v>3270</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1">
         <v>3137</v>
@@ -12550,7 +12550,7 @@
     </row>
     <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="1">
         <v>3101</v>
@@ -13685,7 +13685,7 @@
     </row>
     <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B57" s="1">
         <v>2935</v>
@@ -14593,7 +14593,7 @@
     </row>
     <row r="61" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61" s="1">
         <v>2575</v>
@@ -14820,7 +14820,7 @@
     </row>
     <row r="62" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1">
         <v>2490</v>
@@ -15274,7 +15274,7 @@
     </row>
     <row r="64" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="1">
         <v>2405</v>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="66" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="1">
         <v>2287</v>
@@ -17771,7 +17771,7 @@
     </row>
     <row r="75" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" s="1">
         <v>1670</v>
@@ -17998,7 +17998,7 @@
     </row>
     <row r="76" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="1">
         <v>1600</v>
@@ -18906,7 +18906,7 @@
     </row>
     <row r="80" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" s="1">
         <v>1545</v>
@@ -19133,7 +19133,7 @@
     </row>
     <row r="81" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81" s="1">
         <v>1520</v>
@@ -19360,7 +19360,7 @@
     </row>
     <row r="82" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B82" s="1">
         <v>1350</v>
@@ -20041,7 +20041,7 @@
     </row>
     <row r="85" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" s="1">
         <v>1225</v>
@@ -20949,7 +20949,7 @@
     </row>
     <row r="89" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B89" s="1">
         <v>665</v>
@@ -21857,7 +21857,7 @@
     </row>
     <row r="93" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B93" s="1">
         <v>70</v>
@@ -22311,7 +22311,7 @@
     </row>
     <row r="95" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -23446,7 +23446,7 @@
     </row>
     <row r="100" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
